--- a/biology/Médecine/Nerf_thoraco-dorsal/Nerf_thoraco-dorsal.xlsx
+++ b/biology/Médecine/Nerf_thoraco-dorsal/Nerf_thoraco-dorsal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf thoraco-dorsal (ou nerf du muscle grand dorsal) est un nerf moteur qui innerve le muscle grand dorsal.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf thoraco-dorsal nait à partir du faisceau postérieur du plexus brachial entre les nerfs subscapulaires inférieur et supérieur. Il est constitué de fibres des racines C7, C8 et de manière inconstante C6.
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf thoraco-dorsal chemine avec l'artère subscapulaire le long de la paroi postérieure de l'aisselle pour se terminer sur la face profonde du muscle grand dorsal.
 </t>
@@ -573,7 +589,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf thoraco-dorsal a une fonction uniquement motrice, à destination d'un seul muscle : le muscle grand dorsal.
 </t>
@@ -604,9 +622,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf thoracodorsal peut être utilisé dans la reconstruction chirurgicale du nerf facial[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf thoracodorsal peut être utilisé dans la reconstruction chirurgicale du nerf facial.
 </t>
         </is>
       </c>
